--- a/src/test/resources/excel/template/single2sheet.xlsx
+++ b/src/test/resources/excel/template/single2sheet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CEBFB5E-04A1-4FA4-BE46-718D185E3CBD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{791737B3-685B-4947-996E-D745F1F47488}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11790" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単一シート出力テンプレート" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -41,7 +41,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -76,12 +76,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -97,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -112,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -284,7 +284,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
   </numFmts>
@@ -340,12 +340,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -549,7 +548,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>157370</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>33132</xdr:rowOff>
+      <xdr:rowOff>173935</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -564,8 +563,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5781261" y="1374914"/>
-          <a:ext cx="2352261" cy="455544"/>
+          <a:off x="5781261" y="1432893"/>
+          <a:ext cx="2352261" cy="596346"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -595,6 +594,56 @@
             <a:rPr lang="ja-JP" altLang="en-US"/>
             <a:t>本シートは保護シートです。</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>保護パスワードは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cotos</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -690,7 +739,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>157370</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>33132</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -705,8 +754,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5784988" y="1434135"/>
-          <a:ext cx="2344807" cy="456372"/>
+          <a:off x="5781261" y="1432893"/>
+          <a:ext cx="2352261" cy="612911"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -736,6 +785,18 @@
             <a:rPr lang="ja-JP" altLang="en-US"/>
             <a:t>本シートは保護シートです。</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>保護パスワードは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>cotos</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1106,11 +1167,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -1243,7 +1304,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection password="C404" sheet="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
   </mergeCells>
@@ -1256,11 +1317,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -1393,7 +1454,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection password="C404" sheet="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
   </mergeCells>

--- a/src/test/resources/excel/template/single2sheet.xlsx
+++ b/src/test/resources/excel/template/single2sheet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{791737B3-685B-4947-996E-D745F1F47488}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5590534-5CCE-4E58-97BB-35C715F8DA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単一シート出力テンプレート" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,20 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">単一シート出力テンプレート!$A$1:$G$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'単一シート出力テンプレート (2)'!$A$1:$G$24</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -67,7 +80,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>jx:each(items="appList[0].itemList" var="item" lastCell="F12")</t>
+          <t>jx:each(items="inputEntity.appList[0].itemList" var="item" lastCell="F12")</t>
         </r>
       </text>
     </comment>
@@ -123,7 +136,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>jx:each(items="appList[1].itemList" var="item" lastCell="F12")</t>
+          <t>jx:each(items="inputEntity.appList[1].itemList" var="item" lastCell="F12")</t>
         </r>
       </text>
     </comment>
@@ -251,33 +264,33 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${appList[0].text}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${appList[0].number}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${appList[0].title} 申込書</t>
-    <rPh sb="20" eb="23">
+    <t>${inputEntity.appList[0].title} 申込書</t>
+    <rPh sb="32" eb="35">
       <t>モウシコミショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${appList[1].title} 申込書</t>
-    <rPh sb="20" eb="23">
+    <t>${inputEntity.appList[0].text}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${inputEntity.appList[0].number}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${inputEntity.appList[1].title} 申込書</t>
+    <rPh sb="32" eb="35">
       <t>モウシコミショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${appList[1].text}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${appList[1].number}</t>
+    <t>${inputEntity.appList[1].text}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${inputEntity.appList[1].number}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1170,24 +1183,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.9140625" style="1"/>
+    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.4140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="6" width="17.44140625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="6" width="17.4140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.9140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6"/>
     <row r="2" spans="1:6" ht="24.75" customHeight="1">
       <c r="C2" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
@@ -1197,14 +1208,14 @@
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>C4</f>
-        <v>${appList[0].text}</v>
+        <v>${inputEntity.appList[0].text}</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -1213,7 +1224,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -1229,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1237,7 +1248,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1268,7 +1279,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21" thickBot="1">
+    <row r="12" spans="1:6" ht="18.5" thickBot="1">
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1286,7 +1297,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="21" thickBot="1">
+    <row r="13" spans="1:6" ht="18.5" thickBot="1">
       <c r="C13" s="11" t="s">
         <v>6</v>
       </c>
@@ -1304,7 +1315,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="C404" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9ogQr+4AX2mfmCt7uGfzWgVp7tKsqDEy0oRP/Ga0ZG+ohEBIsbmqQbWmDkr5Je5+LknxJ6ABvjCTER9JYx2daA==" saltValue="TyCNcS4HVwkFDe5Oprvz6w==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
   </mergeCells>
@@ -1320,18 +1331,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E2"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.9140625" style="1"/>
+    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.4140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="6" width="17.44140625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="6" width="17.4140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.9140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6"/>
@@ -1354,7 +1363,7 @@
       </c>
       <c r="E4" s="5" t="str">
         <f>C4</f>
-        <v>${appList[1].text}</v>
+        <v>${inputEntity.appList[1].text}</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -1418,7 +1427,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21" thickBot="1">
+    <row r="12" spans="1:6" ht="18.5" thickBot="1">
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1436,7 +1445,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="21" thickBot="1">
+    <row r="13" spans="1:6" ht="18.5" thickBot="1">
       <c r="C13" s="11" t="s">
         <v>6</v>
       </c>
@@ -1454,7 +1463,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="C404" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sow4g0Y/AmTlkkprEEtV7x1T9R9uWUwS0dRGhKAAaFRuj5dkiBMuUMAuatcKyuPGqQvekuvfgt5qAQj9m87M6w==" saltValue="75pEPep8y22I0tbbHAqn5Q==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
   </mergeCells>
